--- a/sample_top.xlsx
+++ b/sample_top.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taku\Documents\00_ROOT\00_WORK\CODE\SPECSHEET_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB64647A-96DF-4F22-9C6B-B1FE38504706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F17296-C7B9-4D30-ABEF-B035A68708C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="19740" windowWidth="14775" windowHeight="9165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6170" yWindow="3150" windowWidth="14820" windowHeight="9190" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection_result" sheetId="1" r:id="rId1"/>
     <sheet name="Memmap" sheetId="2" r:id="rId2"/>
+    <sheet name="n2n" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="19">
   <si>
     <t>y</t>
   </si>
@@ -74,6 +75,22 @@
   </si>
   <si>
     <t>MEM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n2n_target</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n2n_to</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HOGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>init1_1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -696,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E882AD2A-23E1-4349-BF48-7B58FF931FD9}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -781,4 +798,48 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B58908-4646-4509-AB9E-8A10F46CFE74}">
+  <dimension ref="A2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>